--- a/test_data/add_data.xlsx
+++ b/test_data/add_data.xlsx
@@ -37,7 +37,7 @@
     <t xml:space="preserve">New sample added</t>
   </si>
   <si>
-    <t xml:space="preserve">8838A</t>
+    <t xml:space="preserve">8838AA</t>
   </si>
   <si>
     <t xml:space="preserve">Sample_2</t>
@@ -46,7 +46,7 @@
     <t xml:space="preserve">New sample added2</t>
   </si>
   <si>
-    <t xml:space="preserve">8838A2</t>
+    <t xml:space="preserve">8838AA2</t>
   </si>
   <si>
     <t xml:space="preserve">Sample_3</t>
@@ -55,7 +55,7 @@
     <t xml:space="preserve">New sample added3</t>
   </si>
   <si>
-    <t xml:space="preserve">8838A3</t>
+    <t xml:space="preserve">8838AA3</t>
   </si>
 </sst>
 </file>
@@ -165,10 +165,10 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C10" activeCellId="0" sqref="C10"/>
+      <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.21"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20.42"/>
